--- a/04.테스트/통합테스트 시나리오 명세서.xlsx
+++ b/04.테스트/통합테스트 시나리오 명세서.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테스트목록" sheetId="1" r:id="rId1"/>
-    <sheet name="정량적,정석적분석" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="관리자" sheetId="5" r:id="rId2"/>
+    <sheet name="일반사용자" sheetId="4" r:id="rId3"/>
+    <sheet name="기업사용자" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -30,24 +31,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>파일목록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_02</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정량적,정성적분석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TC_03</t>
@@ -116,132 +105,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양재호</t>
+    <t>업무담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망 도서를 신청한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 완료한 사용자는 시스템에 등록되어있지 않은 도서를 신청할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여한 도서를 반납한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 완료한 사용자는 자신의 대여목록 중 일부를 선택하여 해당 도서를 반납할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 가입시 입력한 개인정보를 변경할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보를 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여중인 도서가 없는 사용자는 탈퇴를 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입이력이 없는 아이디로 회원가입을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 후, 탈퇴한 적이 없는 사용자는 로그인을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들이 대여한 도서의 목록을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 모든 가입회원, 탈퇴회원을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 회원들이 대여한 모든 도서의 정보와 연체여부를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 신청한 도서의 목록을 조회하고, 승인하거나 거절한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 회원이 신청한 도서의 목록을 확인하고, 승인 후 해당도서를 시스템에 등록하거나, 거절 후 그에 적절한 사유를 남길 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유한 도서를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 시스템에 등록된 적 있는 모든 도서를 확인하고, 신규도서를 등록하거나 보유한 도서의 상태를 N으로 변경하여 사용자로부터 검색이 불가능하도록 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 - 아이디와 비밀번호를 입력하고 로그인을 시도한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디와 비밀번호가 맞는 경우 로그인 성공 메시지를 보여주고 관리자 화면을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구인구직 시스템 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 개발된 도시락을 추가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락 상세페이지에서 도시락정보를 입력한 후 입력결과가 부모창에 바로 반영된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오영근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>업무담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합테스트 명세서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망 도서를 신청한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인을 완료한 사용자는 시스템에 등록되어있지 않은 도서를 신청할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여한 도서를 반납한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인을 완료한 사용자는 자신의 대여목록 중 일부를 선택하여 해당 도서를 반납할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 가입시 입력한 개인정보를 변경할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보를 변경한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴를 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여중인 도서가 없는 사용자는 탈퇴를 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입이력이 없는 아이디로 회원가입을 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 후, 탈퇴한 적이 없는 사용자는 로그인을 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록을 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원들이 대여한 도서의 목록을 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 모든 가입회원, 탈퇴회원을 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 회원들이 대여한 모든 도서의 정보와 연체여부를 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이 신청한 도서의 목록을 조회하고, 승인하거나 거절한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 회원이 신청한 도서의 목록을 확인하고, 승인 후 해당도서를 시스템에 등록하거나, 거절 후 그에 적절한 사유를 남길 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유한 도서를 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 시스템에 등록된 적 있는 모든 도서를 확인하고, 신규도서를 등록하거나 보유한 도서의 상태를 N으로 변경하여 사용자로부터 검색이 불가능하도록 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃을 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 - 아이디와 비밀번호를 입력하고 로그인을 시도한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디와 비밀번호가 맞는 경우 로그인 성공 메시지를 보여주고 관리자 화면을 제공한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구인구직 시스템 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 개발된 도시락을 추가한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락 상세페이지에서 도시락정보를 입력한 후 입력결과가 부모창에 바로 반영된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>일반사용자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업사용자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -890,10 +894,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -911,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -922,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -933,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -950,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -967,59 +974,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="8"/>
@@ -1034,25 +1039,25 @@
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1">
       <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="E5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="32" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -1061,19 +1066,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="18"/>
     </row>
@@ -1082,19 +1087,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -1103,19 +1108,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -1124,19 +1129,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -1145,19 +1150,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1166,19 +1171,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1187,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -1208,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1229,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G14" s="31"/>
     </row>
@@ -1250,19 +1255,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G15" s="20"/>
     </row>
@@ -1271,19 +1276,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -1292,19 +1297,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="16"/>
     </row>
@@ -1313,19 +1318,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -1334,19 +1339,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -1443,6 +1448,768 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A15" s="22">
+        <v>9</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="21" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="22" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="23" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="25" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="26" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="28" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="29" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="30" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="31" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="32" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="33" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="34" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="35" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="36" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="37" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="38" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="39" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="40" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="41" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="42" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="43" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="44" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="45" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="46" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="47" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="48" s="21" customFormat="1" ht="41.25" customHeight="1"/>
+    <row r="49" s="21" customFormat="1"/>
+    <row r="50" s="21" customFormat="1"/>
+    <row r="51" s="21" customFormat="1"/>
+    <row r="52" s="21" customFormat="1"/>
+    <row r="53" s="21" customFormat="1"/>
+    <row r="54" s="21" customFormat="1"/>
+    <row r="55" s="21" customFormat="1"/>
+    <row r="56" s="21" customFormat="1"/>
+    <row r="57" s="21" customFormat="1"/>
+    <row r="58" s="21" customFormat="1"/>
+    <row r="59" s="21" customFormat="1"/>
+    <row r="60" s="21" customFormat="1"/>
+    <row r="61" s="21" customFormat="1"/>
+    <row r="62" s="21" customFormat="1"/>
+    <row r="63" s="21" customFormat="1"/>
+    <row r="64" s="21" customFormat="1"/>
+    <row r="65" spans="1:7" s="21" customFormat="1"/>
+    <row r="66" spans="1:7" s="21" customFormat="1"/>
+    <row r="67" spans="1:7" s="21" customFormat="1"/>
+    <row r="68" spans="1:7" s="21" customFormat="1"/>
+    <row r="69" spans="1:7" s="21" customFormat="1"/>
+    <row r="70" spans="1:7" s="21" customFormat="1"/>
+    <row r="71" spans="1:7" s="21" customFormat="1"/>
+    <row r="72" spans="1:7" s="21" customFormat="1"/>
+    <row r="73" spans="1:7" s="21" customFormat="1"/>
+    <row r="74" spans="1:7" s="21" customFormat="1"/>
+    <row r="75" spans="1:7" s="21" customFormat="1"/>
+    <row r="76" spans="1:7" s="21" customFormat="1"/>
+    <row r="77" spans="1:7" s="21" customFormat="1"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84"/>
+      <c r="G84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A15" s="22">
+        <v>9</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A16" s="15">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A17" s="15">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A18" s="15">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A19" s="15">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="21" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="22" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="23" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="25" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="26" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="28" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="29" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="30" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="31" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="32" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="33" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="34" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="35" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="36" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="37" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="38" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="39" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="40" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="41" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="42" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="43" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="44" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="45" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="46" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="47" s="21" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="48" s="21" customFormat="1" ht="41.25" customHeight="1"/>
+    <row r="49" s="21" customFormat="1"/>
+    <row r="50" s="21" customFormat="1"/>
+    <row r="51" s="21" customFormat="1"/>
+    <row r="52" s="21" customFormat="1"/>
+    <row r="53" s="21" customFormat="1"/>
+    <row r="54" s="21" customFormat="1"/>
+    <row r="55" s="21" customFormat="1"/>
+    <row r="56" s="21" customFormat="1"/>
+    <row r="57" s="21" customFormat="1"/>
+    <row r="58" s="21" customFormat="1"/>
+    <row r="59" s="21" customFormat="1"/>
+    <row r="60" s="21" customFormat="1"/>
+    <row r="61" s="21" customFormat="1"/>
+    <row r="62" s="21" customFormat="1"/>
+    <row r="63" s="21" customFormat="1"/>
+    <row r="64" s="21" customFormat="1"/>
+    <row r="65" spans="1:7" s="21" customFormat="1"/>
+    <row r="66" spans="1:7" s="21" customFormat="1"/>
+    <row r="67" spans="1:7" s="21" customFormat="1"/>
+    <row r="68" spans="1:7" s="21" customFormat="1"/>
+    <row r="69" spans="1:7" s="21" customFormat="1"/>
+    <row r="70" spans="1:7" s="21" customFormat="1"/>
+    <row r="71" spans="1:7" s="21" customFormat="1"/>
+    <row r="72" spans="1:7" s="21" customFormat="1"/>
+    <row r="73" spans="1:7" s="21" customFormat="1"/>
+    <row r="74" spans="1:7" s="21" customFormat="1"/>
+    <row r="75" spans="1:7" s="21" customFormat="1"/>
+    <row r="76" spans="1:7" s="21" customFormat="1"/>
+    <row r="77" spans="1:7" s="21" customFormat="1"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84"/>
+      <c r="G84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A1:C1"/>
@@ -1457,18 +2224,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>